--- a/제목 없는 스프레드시트 (1).xlsx
+++ b/제목 없는 스프레드시트 (1).xlsx
@@ -14,28 +14,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Weapon</t>
   </si>
   <si>
-    <t>피스톨</t>
-  </si>
-  <si>
     <t>반자동</t>
   </si>
   <si>
-    <t>자동소총</t>
-  </si>
-  <si>
     <t>자동.</t>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ood</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회복시켜준다</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -48,6 +143,25 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -73,9 +187,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -291,9 +407,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -301,11 +419,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
@@ -318,16 +436,33 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/제목 없는 스프레드시트 (1).xlsx
+++ b/제목 없는 스프레드시트 (1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Weapon</t>
   </si>
@@ -42,6 +42,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -125,12 +126,280 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>2Gun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Gun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰고있는지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장전속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄속</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격딜레이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoGun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ood</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대탄약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피흡량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대Hp증가량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피흡증가량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특공확률증가량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특공확률증가량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격중움직임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력증가쿨타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬쿨타임감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프시간증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프지속시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피흡증가량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대체력증가량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대쉴드량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉴드회복량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬쿨타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프지속시간증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속증가량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속증가량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격딜레이감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격딜레이감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백증가량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hp</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가량</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스킬</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Code</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백증가량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대체력증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는피해감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는피해감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총알갯수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄퍼짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨탐체력증가량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -140,6 +409,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -166,13 +436,94 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,11 +538,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -407,62 +772,655 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:AW5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="BA7" sqref="BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+    </row>
+    <row r="3" spans="1:49" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="b">
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>17</v>
+      </c>
+      <c r="R3">
+        <v>0.1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="4" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="b">
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E3" t="b">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
         <v>0</v>
       </c>
     </row>

--- a/제목 없는 스프레드시트 (1).xlsx
+++ b/제목 없는 스프레드시트 (1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Weapon</t>
   </si>
@@ -391,7 +391,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회복량</t>
+    <t>회복량힐템전용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성할것code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티어</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +496,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +533,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -538,14 +552,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -557,6 +570,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -772,15 +787,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AW5"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA7" sqref="BA7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -802,182 +817,190 @@
       <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AC1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AF1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AI1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AV1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="H2" s="10" t="s">
+    <row r="2" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H2" s="17"/>
+      <c r="I2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="11" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="14" t="s">
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="17" t="s">
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
     </row>
-    <row r="3" spans="1:49" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,24 +1022,24 @@
       <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="b">
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>7</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>20</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
@@ -1024,20 +1047,20 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>2</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>17</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.1</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
         <v>0</v>
       </c>
@@ -1125,8 +1148,14 @@
       <c r="AW3">
         <v>0</v>
       </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,24 +1177,24 @@
       <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="b">
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="b">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>20</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>5</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
         <v>0</v>
       </c>
@@ -1173,20 +1202,20 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>4</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>17</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.5</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
         <v>0</v>
       </c>
@@ -1274,8 +1303,14 @@
       <c r="AW4">
         <v>0</v>
       </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1297,15 +1332,15 @@
       <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="b">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="b">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0</v>
       </c>
@@ -1421,6 +1456,12 @@
         <v>0</v>
       </c>
       <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
         <v>0</v>
       </c>
     </row>

--- a/제목 없는 스프레드시트 (1).xlsx
+++ b/제목 없는 스프레드시트 (1).xlsx
@@ -26,34 +26,6 @@
   </si>
   <si>
     <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>F</t>
     </r>
     <r>
@@ -64,21 +36,6 @@
         <family val="2"/>
       </rPr>
       <t>ood</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>o3</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -400,6 +357,49 @@
   </si>
   <si>
     <t>티어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o_1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -790,170 +790,170 @@
   <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="N1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="AP1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ1" s="18" t="s">
+      <c r="AV1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY1" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="AV1" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H2" s="17"/>
       <c r="I2" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
@@ -970,13 +970,13 @@
       <c r="V2" s="11"/>
       <c r="X2" s="11"/>
       <c r="Y2" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Z2" s="10"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
@@ -990,7 +990,7 @@
       <c r="AN2" s="14"/>
       <c r="AO2" s="14"/>
       <c r="AP2" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AQ2" s="15"/>
       <c r="AR2" s="15"/>
@@ -1004,8 +1004,8 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -1159,8 +1159,8 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="5" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1327,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>4</v>
